--- a/1_Result_Tables/4_ifoCAST_evaluations_full_since_2022/ifoCAst_error_tables_full_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full_since_2022/ifoCAst_error_tables_full_latest_since_2022.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01434548381373955</v>
+        <v>-0.01879798516539222</v>
       </c>
       <c r="C2">
-        <v>0.3597000642048924</v>
+        <v>0.3559641005099519</v>
       </c>
       <c r="D2">
-        <v>0.2245901549577819</v>
+        <v>0.2241929700663822</v>
       </c>
       <c r="E2">
-        <v>0.4739094375065577</v>
+        <v>0.4734902006022746</v>
       </c>
       <c r="F2">
-        <v>0.4817901554067142</v>
+        <v>0.4812049593648728</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.204934992995844</v>
+        <v>0.1997949562989836</v>
       </c>
       <c r="C3">
-        <v>0.5379494743905597</v>
+        <v>0.5133874392789209</v>
       </c>
       <c r="D3">
-        <v>0.4482602161508978</v>
+        <v>0.4202257940472184</v>
       </c>
       <c r="E3">
-        <v>0.6695223791262678</v>
+        <v>0.6482482503232989</v>
       </c>
       <c r="F3">
-        <v>0.6409575686818799</v>
+        <v>0.6199282290422755</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1525207669412214</v>
+        <v>0.1942849321833074</v>
       </c>
       <c r="C4">
-        <v>0.5079667350202709</v>
+        <v>0.5188225552120047</v>
       </c>
       <c r="D4">
-        <v>0.3514901776706589</v>
+        <v>0.3557134039314317</v>
       </c>
       <c r="E4">
-        <v>0.5928660706016654</v>
+        <v>0.5964171391999326</v>
       </c>
       <c r="F4">
-        <v>0.5798561411065356</v>
+        <v>0.5701163892217513</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
